--- a/pred_ohlcv/54_21/2019-11-21 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-21 PLY ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1635871.934042858</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>1398465.222842858</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1979869.476342858</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1979869.476342858</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>932700.0555428583</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1168973.055542858</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1069969.122042858</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1069969.122042858</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>1743508.804142858</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>2267437.796242858</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>2320705.393642858</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>2320705.393642858</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>2320705.393642858</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>2320705.393642858</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>2320705.393642858</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>1756710.080442858</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>2178178.020542858</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1894794.129542858</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1894794.129542858</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>1894794.129542858</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1894794.129542858</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>1830106.459642858</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>1827321.852982918</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>1827321.852982918</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>1827469.852982918</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>68337530.97572552</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>67000534.33622552</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>64652300.09882551</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>64690980.61902384</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>64815907.00262384</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>64588228.70382384</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>64359593.20312385</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>64586525.88672385</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>67468561.74632384</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>67107868.61782384</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>65975670.59832384</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>65931864.59832384</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>65864477.95142385</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>65876801.74482384</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>65876542.38502384</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>65790367.16852384</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>65790367.16852384</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>65665410.44892384</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>65365073.54762384</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>65503627.10022384</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>65350669.98592384</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>65447011.34192384</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>65138027.90922384</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>65041120.46862384</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>64523179.26702384</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-21 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-21 PLY ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>346148.3302428581</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1979869.476342858</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1830761.832042858</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>2061958.921642858</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>2061958.921642858</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1726866.388342858</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>2104087.165642858</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>932700.0555428583</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>1168973.055542858</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1069969.122042858</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1069969.122042858</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1069969.122042858</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1069969.122042858</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>1827469.852982918</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>2102609.012182917</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>2102609.012182917</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>2102609.012182917</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>1631332.557882918</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>1845515.192882918</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>67943294.12417337</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>68541769.53132552</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>68339030.97572552</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>68337530.97572552</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>68193189.13332552</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>67590998.98982552</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>67000534.33622552</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>67000534.33622552</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>66796163.85382552</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>65714097.89322551</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>65712260.73792551</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>64652300.09882551</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>64586525.88672385</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>67468561.74632384</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>67107868.61782384</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>66024861.01942384</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>65975670.59832384</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>65931864.59832384</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>65971825.90462384</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>66327034.86452384</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>65876801.74482384</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>65665410.44892384</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>65365073.54762384</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>65503627.10022384</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>65350669.98592384</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>64799781.08052383</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>63834026.40872383</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>63834026.40872383</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>63834026.40872383</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>63608335.52162383</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>63608335.52162383</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>63404368.66572383</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>63312124.15792383</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>63046379.62682383</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>65543290.50822382</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>65768066.79042383</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>65411599.79122382</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>65193782.69062383</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>65042685.00782382</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>64578261.57332383</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>64867507.42692383</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>64886335.00712384</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>64737588.40752383</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>64737588.40752383</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>64630515.74872383</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>64384134.07752384</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>64399982.98482384</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>64258337.80992384</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>64258337.80992384</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
